--- a/individual systems assignment/individual systems assignment.xlsx
+++ b/individual systems assignment/individual systems assignment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4320\repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4320\repo\individual systems assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E6A2410-D7D0-4B34-9E7C-ED68F7279A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B869E1C2-5BCC-426A-9F2A-2AC3CA747BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{B76E465A-98E5-4973-882A-5CC4B7903DAE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B76E465A-98E5-4973-882A-5CC4B7903DAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,11 +35,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+  <si>
+    <t>Users don't know who is buying their data</t>
+  </si>
+  <si>
+    <t>Public's trust in businesses</t>
+  </si>
+  <si>
+    <t>Data security measures</t>
+  </si>
+  <si>
+    <t>Users may not be completely informed enough to consent</t>
+  </si>
+  <si>
+    <t>Data collection/targeted advertising</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Users' right to privacy</t>
+  </si>
+  <si>
+    <t>Use of E-Commerce over traditional methods</t>
+  </si>
+  <si>
+    <t>Use of information can expand beyond marketing</t>
+  </si>
+  <si>
+    <t>Ethical Quandary (Retailer selling personal info)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -66,8 +108,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,12 +430,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07262FBF-871A-42AD-8841-26EF80341DD6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="5" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>